--- a/TUGAS SIA (to dosen).xlsx
+++ b/TUGAS SIA (to dosen).xlsx
@@ -11,15 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$R$48:$R$65</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
-  <si>
-    <t>PT. MAKMUR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
   <si>
     <t>TRIAL BALANCE</t>
   </si>
@@ -81,9 +81,6 @@
     <t>BIAYA LISTRIK (ELECTRICS EXPENSE)</t>
   </si>
   <si>
-    <t>PT.MAKMUR</t>
-  </si>
-  <si>
     <t>LAPORAN LABA RUGI/ INCOME STATEMENT</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>TOTAL KEWAJIBAN &amp; MODAL</t>
   </si>
   <si>
-    <t>PERIODE 31 DECEMBER 2002</t>
-  </si>
-  <si>
     <t>PENDAPATAN SEWA / RENT INCOME</t>
   </si>
   <si>
@@ -237,12 +231,6 @@
     <t>PERIODE 31 DESEMBER 2002</t>
   </si>
   <si>
-    <t>CAPITAL MAKMUR, 1 DECEMBER 2002</t>
-  </si>
-  <si>
-    <t>CAPITAL MAKMUR, 31 DECEMBER 2002</t>
-  </si>
-  <si>
     <t>UTANG WESEL</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>2. LAPORAN KEUANGAN</t>
   </si>
   <si>
-    <t>3. KETERANGAN LAPORAN TRANSAKSI PER 31 DES 2001 &amp; 31 DES 2002 PT. MAKMUR</t>
-  </si>
-  <si>
     <t>PIUTANG DAGANG (ACCOUNT RECEIVABLE)</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>UTANG DAGANG</t>
   </si>
   <si>
-    <t>4. KONSEKUENSI BAGI PERUSAHAAN PT. MAKMUR</t>
-  </si>
-  <si>
     <t xml:space="preserve">(10.500.000) yang nilainya jauh lebih besar dari modal yang telah di ivestasikan sebesar </t>
   </si>
   <si>
@@ -342,21 +324,12 @@
     <t>setelah dikurangkan atas pengambilan pribadi pak Makmur (2.000.000)</t>
   </si>
   <si>
-    <t>Pada data keuangan Perusahaan Jasa PT. MAKMUR periode 31 des 2001 menghasilkan Laba bersih</t>
-  </si>
-  <si>
-    <t>Pada periode 31 des 2002 Perusahaan Dagang PT. MAKMUR menghasilkan Laba Bersih sebesar</t>
-  </si>
-  <si>
     <t>(1.455.000) disebabkan angka pendapatan &gt; beban/biaya, yang berhubung pada penambahan</t>
   </si>
   <si>
     <t>modal awal pak Makmur sebesar (10.000.000) = modal akhir (11.455.000)</t>
   </si>
   <si>
-    <t>PT. MAKMUR lebih baik menggunakan tipe perusahaan Jasa, karena selain menguntungkan atas</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. SARAN </t>
   </si>
   <si>
@@ -367,6 +340,39 @@
   </si>
   <si>
     <t xml:space="preserve"> 1. pendapatan jasa yang besar ,juga mengurangi beban/ biaya yang terjadi.</t>
+  </si>
+  <si>
+    <t>PT. ORMAS</t>
+  </si>
+  <si>
+    <t>PT ORMAS</t>
+  </si>
+  <si>
+    <t>3. KETERANGAN LAPORAN TRANSAKSI PER 31 DES 2001 &amp; 31 DES 2002 PT. ORMAS</t>
+  </si>
+  <si>
+    <t>4. KONSEKUENSI BAGI PERUSAHAAN PT. ORMAS</t>
+  </si>
+  <si>
+    <t>Pada data keuangan Perusahaan Jasa PT. ORMAS periode 31 des 2001 menghasilkan Laba bersih</t>
+  </si>
+  <si>
+    <t>Pada periode 31 des 2002 Perusahaan Dagang PT. ORMAS menghasilkan Laba Bersih sebesar</t>
+  </si>
+  <si>
+    <t>PT. ORMAS lebih baik menggunakan tipe perusahaan Jasa, karena selain menguntungkan atas</t>
+  </si>
+  <si>
+    <t>MODAL ORMAS (CAPITAL)</t>
+  </si>
+  <si>
+    <t>PT.ORMAS</t>
+  </si>
+  <si>
+    <t>CAPITAL ORMAS, 1 DESEMBER 2002</t>
+  </si>
+  <si>
+    <t>CAPITAL ORMAS, 31 DESEMBER 2002</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="R56" sqref="R56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L40" zoomScale="60" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,96 +1238,96 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R1" s="72" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="R3" s="72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="R4" s="72" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S4" s="72" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="R5" s="72" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S5" s="72" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="101" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="101"/>
       <c r="H6" s="101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
       <c r="L6" s="101"/>
       <c r="M6" s="101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N6" s="101"/>
       <c r="O6" s="101"/>
       <c r="P6" s="101"/>
       <c r="Q6" s="101"/>
       <c r="R6" s="72" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="S6" s="72" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="101"/>
       <c r="D7" s="101"/>
       <c r="E7" s="101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="101"/>
       <c r="G7" s="101"/>
       <c r="H7" s="101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
       <c r="L7" s="101"/>
       <c r="M7" s="101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" s="101"/>
       <c r="O7" s="101"/>
@@ -1331,25 +1337,25 @@
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="106"/>
       <c r="G8" s="106"/>
       <c r="H8" s="106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="106"/>
       <c r="J8" s="106"/>
       <c r="K8" s="106"/>
       <c r="L8" s="106"/>
       <c r="M8" s="102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" s="102"/>
       <c r="O8" s="102"/>
@@ -1357,29 +1363,29 @@
       <c r="Q8" s="102"/>
       <c r="R8" s="72"/>
       <c r="S8" s="72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" s="112" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="112"/>
       <c r="G9" s="22"/>
       <c r="H9" s="111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="111"/>
       <c r="J9" s="111"/>
@@ -1388,19 +1394,19 @@
         <v>6000000</v>
       </c>
       <c r="M9" s="103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N9" s="109"/>
       <c r="O9" s="94"/>
       <c r="P9" s="87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S9" s="72" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1408,40 +1414,40 @@
         <v>101</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>6000000</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="20">
         <v>11000000</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
       <c r="K10" s="25"/>
       <c r="L10" s="26"/>
       <c r="M10" s="107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N10" s="108"/>
       <c r="O10" s="95"/>
       <c r="P10" s="85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="34"/>
       <c r="R10" s="72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S10" s="72" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1449,21 +1455,21 @@
         <v>102</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>2000000</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="20">
         <v>3000000</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="101"/>
       <c r="J11" s="101"/>
@@ -1472,20 +1478,20 @@
         <v>10500000</v>
       </c>
       <c r="M11" s="76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="98">
         <v>6000000</v>
       </c>
       <c r="O11" s="96"/>
       <c r="P11" s="85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="31">
         <v>5000000</v>
       </c>
       <c r="R11" s="72" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1493,14 +1499,14 @@
         <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>3000000</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="76"/>
       <c r="G12" s="19">
@@ -1514,20 +1520,20 @@
         <v>16500000</v>
       </c>
       <c r="M12" s="76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N12" s="38">
         <v>2000000</v>
       </c>
       <c r="O12" s="96"/>
       <c r="P12" s="85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="32">
         <v>2000000</v>
       </c>
       <c r="R12" s="72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1535,7 +1541,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1500000</v>
@@ -1550,14 +1556,14 @@
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
       <c r="M13" s="76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N13" s="38">
         <v>3000000</v>
       </c>
       <c r="O13" s="96"/>
       <c r="P13" s="89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="31">
         <v>7000000</v>
@@ -1569,7 +1575,7 @@
         <v>131</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>4000000</v>
@@ -1579,14 +1585,14 @@
       <c r="F14" s="82"/>
       <c r="G14" s="16"/>
       <c r="H14" s="105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="105"/>
       <c r="J14" s="105"/>
       <c r="K14" s="27"/>
       <c r="L14" s="26"/>
       <c r="M14" s="76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="38">
         <v>1500000</v>
@@ -1601,7 +1607,7 @@
         <v>132</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>5000000</v>
@@ -1611,7 +1617,7 @@
       <c r="F15" s="82"/>
       <c r="G15" s="16"/>
       <c r="H15" s="101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
@@ -1620,7 +1626,7 @@
         <v>-2000000</v>
       </c>
       <c r="M15" s="76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N15" s="99">
         <v>12500000</v>
@@ -1629,7 +1635,7 @@
       <c r="P15" s="91"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1">
@@ -1637,19 +1643,19 @@
         <v>201</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3">
         <v>5000000</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="23"/>
       <c r="H16" s="101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -1663,10 +1669,10 @@
       <c r="P16" s="90"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickTop="1">
@@ -1674,14 +1680,14 @@
         <v>202</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3">
         <v>2000000</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="20">
         <v>1000000</v>
@@ -1698,7 +1704,7 @@
       <c r="P17" s="90"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1706,14 +1712,14 @@
         <v>301</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3">
         <v>6000000</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="20">
         <v>2500000</v>
@@ -1725,17 +1731,17 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N18" s="108"/>
       <c r="O18" s="95"/>
       <c r="P18" s="85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="34"/>
       <c r="R18" s="72"/>
       <c r="S18" s="72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1">
@@ -1743,14 +1749,14 @@
         <v>302</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>2000000</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="21">
@@ -1762,21 +1768,21 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N19" s="100">
         <v>4000000</v>
       </c>
       <c r="O19" s="96"/>
       <c r="P19" s="85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="32">
         <v>14500000</v>
       </c>
       <c r="R19" s="72"/>
       <c r="S19" s="72" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1">
@@ -1784,14 +1790,14 @@
         <v>401</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3">
         <v>11000000</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="24">
@@ -1803,7 +1809,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" s="100">
         <v>5000000</v>
@@ -1813,7 +1819,7 @@
       <c r="Q20" s="30"/>
       <c r="R20" s="72"/>
       <c r="S20" s="72" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickTop="1">
@@ -1821,7 +1827,7 @@
         <v>402</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3">
@@ -1835,7 +1841,7 @@
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N21" s="100">
         <v>9000000</v>
@@ -1844,7 +1850,7 @@
       <c r="P21" s="89"/>
       <c r="Q21" s="30"/>
       <c r="S21" s="72" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
@@ -1852,7 +1858,7 @@
         <v>501</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>1000000</v>
@@ -1864,14 +1870,14 @@
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N22" s="100">
         <v>21500000</v>
       </c>
       <c r="O22" s="96"/>
       <c r="P22" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="33">
         <v>21500000</v>
@@ -1883,7 +1889,7 @@
         <v>502</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="9">
         <v>2500000</v>
@@ -2033,55 +2039,55 @@
     </row>
     <row r="48" spans="8:18">
       <c r="R48" s="72" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E51" s="72" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="R53" s="72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="R54" s="72" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="L55" s="72"/>
       <c r="Q55" s="72"/>
       <c r="R55" s="72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B56" s="101"/>
       <c r="C56" s="101"/>
       <c r="D56" s="101"/>
       <c r="E56" s="101" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="F56" s="101"/>
       <c r="G56" s="101"/>
       <c r="H56" s="101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I56" s="101"/>
       <c r="J56" s="101"/>
       <c r="K56" s="101"/>
       <c r="L56" s="101"/>
       <c r="M56" s="101" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N56" s="101"/>
       <c r="O56" s="101"/>
@@ -2093,25 +2099,25 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="101"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
       <c r="E57" s="101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F57" s="101"/>
       <c r="G57" s="101"/>
       <c r="H57" s="101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I57" s="101"/>
       <c r="J57" s="101"/>
       <c r="K57" s="101"/>
       <c r="L57" s="101"/>
       <c r="M57" s="101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N57" s="101"/>
       <c r="O57" s="101"/>
@@ -2123,56 +2129,56 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" thickBot="1">
       <c r="A58" s="106" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B58" s="106"/>
       <c r="C58" s="106"/>
       <c r="D58" s="106"/>
       <c r="E58" s="102" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F58" s="102"/>
       <c r="G58" s="102"/>
       <c r="H58" s="102" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I58" s="102"/>
       <c r="J58" s="102"/>
       <c r="K58" s="102"/>
       <c r="L58" s="102"/>
       <c r="M58" s="102" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N58" s="102"/>
       <c r="O58" s="102"/>
       <c r="P58" s="102"/>
       <c r="Q58" s="102"/>
       <c r="R58" s="72" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S58" s="72"/>
       <c r="T58" s="72"/>
     </row>
     <row r="59" spans="1:22" ht="16.5" thickTop="1" thickBot="1">
       <c r="A59" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="C59" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="D59" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="58" t="s">
-        <v>6</v>
-      </c>
       <c r="E59" s="104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F59" s="104"/>
       <c r="G59" s="104"/>
       <c r="H59" s="104" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="104"/>
@@ -2181,16 +2187,16 @@
         <v>10000000</v>
       </c>
       <c r="M59" s="103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N59" s="103"/>
       <c r="O59" s="88"/>
       <c r="P59" s="87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q59" s="86"/>
       <c r="R59" s="72" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S59" s="72"/>
       <c r="T59" s="72"/>
@@ -2200,37 +2206,37 @@
         <v>101</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="56">
         <v>6200000</v>
       </c>
       <c r="D60" s="57"/>
       <c r="E60" s="46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F60" s="42">
         <v>5700000</v>
       </c>
       <c r="G60" s="46"/>
       <c r="H60" s="105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I60" s="105"/>
       <c r="J60" s="105"/>
       <c r="K60" s="67"/>
       <c r="L60" s="68"/>
       <c r="M60" s="78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N60" s="78"/>
       <c r="O60" s="76"/>
       <c r="P60" s="85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q60" s="83"/>
       <c r="R60" s="72" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S60" s="72"/>
       <c r="T60" s="72"/>
@@ -2241,21 +2247,21 @@
         <v>102</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C61" s="53">
         <v>2240000</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F61" s="42">
         <v>180000</v>
       </c>
       <c r="G61" s="46"/>
       <c r="H61" s="101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I61" s="101"/>
       <c r="J61" s="101"/>
@@ -2264,14 +2270,14 @@
         <v>1455000</v>
       </c>
       <c r="M61" s="78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N61" s="80">
         <v>6200000</v>
       </c>
       <c r="O61" s="82"/>
       <c r="P61" s="85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q61" s="73">
         <v>1800000</v>
@@ -2286,14 +2292,14 @@
         <v>103</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="53">
         <v>265000</v>
       </c>
       <c r="D62" s="54"/>
       <c r="E62" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="48">
@@ -2306,20 +2312,20 @@
       <c r="K62" s="67"/>
       <c r="L62" s="69"/>
       <c r="M62" s="78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N62" s="73">
         <v>2240000</v>
       </c>
       <c r="O62" s="82"/>
       <c r="P62" s="85" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q62" s="77">
         <v>3000000</v>
       </c>
       <c r="R62" s="72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S62" s="72"/>
       <c r="T62" s="72"/>
@@ -2329,7 +2335,7 @@
         <v>104</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="53">
         <v>900000</v>
@@ -2339,27 +2345,27 @@
       <c r="F63" s="41"/>
       <c r="G63" s="47"/>
       <c r="H63" s="67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
       <c r="K63" s="67"/>
       <c r="L63" s="69"/>
       <c r="M63" s="78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N63" s="73">
         <v>265000</v>
       </c>
       <c r="O63" s="82"/>
       <c r="P63" s="89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q63" s="73">
         <v>4800000</v>
       </c>
       <c r="R63" s="72" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S63" s="72"/>
       <c r="T63" s="72"/>
@@ -2369,7 +2375,7 @@
         <v>105</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64" s="53">
         <v>50000</v>
@@ -2384,7 +2390,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="69"/>
       <c r="M64" s="78" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N64" s="73">
         <v>50000</v>
@@ -2393,7 +2399,7 @@
       <c r="P64" s="90"/>
       <c r="Q64" s="74"/>
       <c r="R64" s="72" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S64" s="72"/>
       <c r="T64" s="72"/>
@@ -2403,7 +2409,7 @@
         <v>131</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="53">
         <v>6600000</v>
@@ -2413,7 +2419,7 @@
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
       <c r="H65" s="101" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I65" s="101"/>
       <c r="J65" s="101"/>
@@ -2422,7 +2428,7 @@
         <v>11455000</v>
       </c>
       <c r="M65" s="78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N65" s="77">
         <v>900000</v>
@@ -2438,21 +2444,21 @@
         <v>201</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C66" s="53"/>
       <c r="D66" s="54">
         <v>1800000</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
       <c r="M66" s="84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N66" s="75">
         <v>9655000</v>
@@ -2468,14 +2474,14 @@
         <v>202</v>
       </c>
       <c r="B67" s="65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C67" s="53"/>
       <c r="D67" s="54">
         <v>3000000</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F67" s="42">
         <v>3900000</v>
@@ -2496,14 +2502,14 @@
         <v>301</v>
       </c>
       <c r="B68" s="65" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C68" s="53"/>
       <c r="D68" s="54">
         <v>10000000</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F68" s="44">
         <v>80000</v>
@@ -2512,12 +2518,12 @@
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
       <c r="M68" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N68" s="83"/>
       <c r="O68" s="74"/>
       <c r="P68" s="85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q68" s="83"/>
       <c r="S68" s="72"/>
@@ -2528,14 +2534,14 @@
         <v>401</v>
       </c>
       <c r="B69" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="53"/>
       <c r="D69" s="54">
         <v>5700000</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F69" s="44">
         <v>395000</v>
@@ -2544,14 +2550,14 @@
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
       <c r="M69" s="78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N69" s="77">
         <v>6600000</v>
       </c>
       <c r="O69" s="84"/>
       <c r="P69" s="85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q69" s="77">
         <v>11455000</v>
@@ -2564,14 +2570,14 @@
         <v>402</v>
       </c>
       <c r="B70" s="65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C70" s="53"/>
       <c r="D70" s="54">
         <v>180000</v>
       </c>
       <c r="E70" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F70" s="45">
         <v>50000</v>
@@ -2580,7 +2586,7 @@
       <c r="H70" s="49"/>
       <c r="I70" s="49"/>
       <c r="M70" s="83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N70" s="77">
         <v>6600000</v>
@@ -2596,14 +2602,14 @@
         <v>501</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C71" s="53">
         <v>3900000</v>
       </c>
       <c r="D71" s="54"/>
       <c r="E71" s="46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="50">
@@ -2613,14 +2619,14 @@
       <c r="H71" s="49"/>
       <c r="I71" s="44"/>
       <c r="M71" s="79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N71" s="81">
         <v>16255000</v>
       </c>
       <c r="O71" s="84"/>
       <c r="P71" s="92" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q71" s="81">
         <v>16255000</v>
@@ -2633,14 +2639,14 @@
         <v>502</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C72" s="53">
         <v>80000</v>
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F72" s="46"/>
       <c r="G72" s="51">
@@ -2657,7 +2663,7 @@
         <v>503</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="53">
         <v>395000</v>
@@ -2671,7 +2677,7 @@
         <v>504</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C74" s="60">
         <v>50000</v>
@@ -2747,8 +2753,9 @@
     <mergeCell ref="M59:N59"/>
     <mergeCell ref="H59:K59"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
